--- a/OS Levels/Windows Server SAC 1804/Test-AdminSDHolderBaseline.xlsx
+++ b/OS Levels/Windows Server SAC 1804/Test-AdminSDHolderBaseline.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Source\AdminSDHolder\OS Levels\Windows Server SAC 1804\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB743E6B-0FC0-47AC-A38F-0F325B8D41BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36709681-F3CB-4A3D-8428-A683B405A31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{62B54C40-BFF2-4161-90B8-195190595B93}"/>
+    <workbookView xWindow="40430" yWindow="4260" windowWidth="28800" windowHeight="15290" xr2:uid="{62B54C40-BFF2-4161-90B8-195190595B93}"/>
   </bookViews>
   <sheets>
     <sheet name="Test-AdminSDHolderBaseline" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Test-AdminSDHolderBaseline'!$A$1:$R$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Test-AdminSDHolderBaseline'!$A$1:$R$52</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -1594,10 +1594,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887D09AF-12EA-4D38-936F-715645BFFC8B}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:R52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1677,15 +1678,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1697,7 +1698,7 @@
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>161</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -1724,7 +1725,7 @@
         <v>23</v>
       </c>
       <c r="Q2" s="1">
-        <v>45764.504247685189</v>
+        <v>45764.504629629628</v>
       </c>
       <c r="R2" s="1">
         <v>45764.515162037038</v>
@@ -1732,13 +1733,13 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1750,7 +1751,7 @@
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="I3" t="s">
         <v>29</v>
@@ -1780,18 +1781,18 @@
         <v>45764.504247685189</v>
       </c>
       <c r="R3" s="1">
-        <v>45764.504629629628</v>
+        <v>45764.504247685189</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>179</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>180</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>181</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1803,13 +1804,13 @@
         <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>182</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
@@ -1830,33 +1831,36 @@
         <v>7</v>
       </c>
       <c r="Q4" s="1">
-        <v>45764.504247685189</v>
+        <v>45764.504629629628</v>
       </c>
       <c r="R4" s="1">
         <v>45764.504629629628</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>221</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>222</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>223</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>513</v>
+      </c>
+      <c r="F5" t="s">
+        <v>224</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>225</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>226</v>
       </c>
       <c r="I5" t="s">
         <v>23</v>
@@ -1886,18 +1890,18 @@
         <v>45764.504247685189</v>
       </c>
       <c r="R5" s="1">
-        <v>45764.515162037038</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+        <v>45764.515543981484</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1909,7 +1913,7 @@
         <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s">
         <v>23</v>
@@ -1942,15 +1946,15 @@
         <v>45764.515162037038</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1962,7 +1966,7 @@
         <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I7" t="s">
         <v>23</v>
@@ -1997,13 +2001,13 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>132</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2011,17 +2015,20 @@
       <c r="E8">
         <v>0</v>
       </c>
+      <c r="F8" t="s">
+        <v>119</v>
+      </c>
       <c r="G8" t="s">
         <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>133</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="J8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
@@ -2042,21 +2049,21 @@
         <v>7</v>
       </c>
       <c r="Q8" s="1">
-        <v>45764.504247685189</v>
+        <v>45764.504629629628</v>
       </c>
       <c r="R8" s="1">
-        <v>45764.504247685189</v>
+        <v>45764.504629629628</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2068,7 +2075,7 @@
         <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="I9" t="s">
         <v>29</v>
@@ -2103,13 +2110,13 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>56</v>
+        <v>194</v>
+      </c>
+      <c r="B10" t="s">
+        <v>195</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>196</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2121,13 +2128,13 @@
         <v>21</v>
       </c>
       <c r="H10" t="s">
-        <v>58</v>
+        <v>197</v>
       </c>
       <c r="I10" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="J10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
@@ -2148,21 +2155,21 @@
         <v>7</v>
       </c>
       <c r="Q10" s="1">
-        <v>45764.504247685189</v>
+        <v>45764.504629629628</v>
       </c>
       <c r="R10" s="1">
-        <v>45764.504247685189</v>
+        <v>45764.504629629628</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2174,7 +2181,7 @@
         <v>21</v>
       </c>
       <c r="H11" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="I11" t="s">
         <v>29</v>
@@ -2209,13 +2216,13 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>183</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>184</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2227,13 +2234,13 @@
         <v>21</v>
       </c>
       <c r="H12" t="s">
-        <v>66</v>
+        <v>185</v>
       </c>
       <c r="I12" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="J12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
@@ -2254,21 +2261,21 @@
         <v>7</v>
       </c>
       <c r="Q12" s="1">
-        <v>45764.504247685189</v>
+        <v>45764.504629629628</v>
       </c>
       <c r="R12" s="1">
-        <v>45764.504247685189</v>
+        <v>45764.504629629628</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2280,7 +2287,7 @@
         <v>21</v>
       </c>
       <c r="H13" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I13" t="s">
         <v>29</v>
@@ -2315,13 +2322,13 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>210</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>211</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>212</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2333,13 +2340,13 @@
         <v>21</v>
       </c>
       <c r="H14" t="s">
-        <v>74</v>
+        <v>213</v>
       </c>
       <c r="I14" t="s">
-        <v>29</v>
+        <v>214</v>
       </c>
       <c r="J14" t="s">
-        <v>30</v>
+        <v>215</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
@@ -2360,21 +2367,21 @@
         <v>7</v>
       </c>
       <c r="Q14" s="1">
-        <v>45764.504247685189</v>
+        <v>45764.50509259259</v>
       </c>
       <c r="R14" s="1">
-        <v>45764.504247685189</v>
+        <v>45764.50509259259</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>216</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>217</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>218</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2386,13 +2393,13 @@
         <v>21</v>
       </c>
       <c r="H15" t="s">
-        <v>78</v>
+        <v>219</v>
       </c>
       <c r="I15" t="s">
-        <v>29</v>
+        <v>220</v>
       </c>
       <c r="J15" t="s">
-        <v>30</v>
+        <v>215</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
@@ -2413,21 +2420,21 @@
         <v>7</v>
       </c>
       <c r="Q15" s="1">
-        <v>45764.504247685189</v>
+        <v>45764.50509259259</v>
       </c>
       <c r="R15" s="1">
-        <v>45764.504247685189</v>
+        <v>45764.50509259259</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2439,13 +2446,13 @@
         <v>21</v>
       </c>
       <c r="H16" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="I16" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="J16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
@@ -2466,21 +2473,21 @@
         <v>7</v>
       </c>
       <c r="Q16" s="1">
-        <v>45764.504247685189</v>
+        <v>45764.504629629628</v>
       </c>
       <c r="R16" s="1">
-        <v>45764.504247685189</v>
+        <v>45764.504629629628</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2488,17 +2495,20 @@
       <c r="E17">
         <v>0</v>
       </c>
+      <c r="F17" t="s">
+        <v>31</v>
+      </c>
       <c r="G17" t="s">
         <v>21</v>
       </c>
       <c r="H17" t="s">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="I17" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="J17" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
@@ -2519,21 +2529,21 @@
         <v>7</v>
       </c>
       <c r="Q17" s="1">
-        <v>45764.504247685189</v>
+        <v>45764.504629629628</v>
       </c>
       <c r="R17" s="1">
-        <v>45764.504247685189</v>
+        <v>45764.504629629628</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2541,17 +2551,20 @@
       <c r="E18">
         <v>0</v>
       </c>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
       <c r="G18" t="s">
         <v>21</v>
       </c>
       <c r="H18" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="I18" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="J18" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
@@ -2572,21 +2585,21 @@
         <v>7</v>
       </c>
       <c r="Q18" s="1">
-        <v>45764.504247685189</v>
+        <v>45764.504629629628</v>
       </c>
       <c r="R18" s="1">
-        <v>45764.504247685189</v>
+        <v>45764.504629629628</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>190</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>191</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>192</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2598,13 +2611,13 @@
         <v>21</v>
       </c>
       <c r="H19" t="s">
-        <v>94</v>
+        <v>193</v>
       </c>
       <c r="I19" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="J19" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
@@ -2625,21 +2638,21 @@
         <v>7</v>
       </c>
       <c r="Q19" s="1">
-        <v>45764.504247685189</v>
+        <v>45764.504629629628</v>
       </c>
       <c r="R19" s="1">
-        <v>45764.504247685189</v>
+        <v>45764.504629629628</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -2651,7 +2664,7 @@
         <v>21</v>
       </c>
       <c r="H20" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="I20" t="s">
         <v>29</v>
@@ -2686,13 +2699,13 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="C21" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2700,17 +2713,20 @@
       <c r="E21">
         <v>0</v>
       </c>
+      <c r="F21" t="s">
+        <v>119</v>
+      </c>
       <c r="G21" t="s">
         <v>21</v>
       </c>
       <c r="H21" t="s">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="I21" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="J21" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="K21" t="b">
         <v>0</v>
@@ -2731,36 +2747,39 @@
         <v>7</v>
       </c>
       <c r="Q21" s="1">
-        <v>45764.504247685189</v>
+        <v>45764.504629629628</v>
       </c>
       <c r="R21" s="1">
-        <v>45764.504247685189</v>
+        <v>45764.504629629628</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>103</v>
+        <v>227</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>228</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>229</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>514</v>
+      </c>
+      <c r="F22" t="s">
+        <v>31</v>
       </c>
       <c r="G22" t="s">
-        <v>21</v>
+        <v>225</v>
       </c>
       <c r="H22" t="s">
-        <v>106</v>
+        <v>230</v>
       </c>
       <c r="I22" t="s">
-        <v>29</v>
+        <v>231</v>
       </c>
       <c r="J22" t="s">
         <v>30</v>
@@ -2778,10 +2797,10 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="P22">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="Q22" s="1">
         <v>45764.504247685189</v>
@@ -2792,13 +2811,13 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2810,7 +2829,7 @@
         <v>21</v>
       </c>
       <c r="H23" t="s">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="I23" t="s">
         <v>29</v>
@@ -2840,18 +2859,18 @@
         <v>45764.504247685189</v>
       </c>
       <c r="R23" s="1">
-        <v>45764.504247685189</v>
+        <v>45764.504629629628</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="B24" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C24" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2863,13 +2882,13 @@
         <v>21</v>
       </c>
       <c r="H24" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="I24" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="J24" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K24" t="b">
         <v>0</v>
@@ -2890,21 +2909,21 @@
         <v>7</v>
       </c>
       <c r="Q24" s="1">
-        <v>45764.504629629628</v>
+        <v>45764.504247685189</v>
       </c>
       <c r="R24" s="1">
-        <v>45764.504629629628</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+        <v>45764.504247685189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="B25" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="C25" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2913,13 +2932,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G25" t="s">
         <v>21</v>
       </c>
       <c r="H25" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="I25" t="s">
         <v>23</v>
@@ -2952,15 +2971,15 @@
         <v>45764.515162037038</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B26" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C26" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -2975,7 +2994,7 @@
         <v>21</v>
       </c>
       <c r="H26" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I26" t="s">
         <v>23</v>
@@ -3008,7 +3027,7 @@
         <v>45764.515162037038</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>125</v>
       </c>
@@ -3066,13 +3085,13 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="C28" t="s">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -3080,20 +3099,17 @@
       <c r="E28">
         <v>0</v>
       </c>
-      <c r="F28" t="s">
-        <v>119</v>
-      </c>
       <c r="G28" t="s">
         <v>21</v>
       </c>
       <c r="H28" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="I28" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="J28" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K28" t="b">
         <v>0</v>
@@ -3114,21 +3130,21 @@
         <v>7</v>
       </c>
       <c r="Q28" s="1">
-        <v>45764.504629629628</v>
+        <v>45764.504247685189</v>
       </c>
       <c r="R28" s="1">
-        <v>45764.504629629628</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+        <v>45764.504247685189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>134</v>
+        <v>206</v>
       </c>
       <c r="B29" t="s">
-        <v>135</v>
+        <v>207</v>
       </c>
       <c r="C29" t="s">
-        <v>136</v>
+        <v>208</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -3136,14 +3152,11 @@
       <c r="E29">
         <v>0</v>
       </c>
-      <c r="F29" t="s">
-        <v>128</v>
-      </c>
       <c r="G29" t="s">
         <v>21</v>
       </c>
       <c r="H29" t="s">
-        <v>137</v>
+        <v>209</v>
       </c>
       <c r="I29" t="s">
         <v>23</v>
@@ -3178,13 +3191,13 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="B30" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="C30" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -3192,17 +3205,14 @@
       <c r="E30">
         <v>0</v>
       </c>
-      <c r="F30" t="s">
-        <v>25</v>
-      </c>
       <c r="G30" t="s">
         <v>21</v>
       </c>
       <c r="H30" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="I30" t="s">
-        <v>115</v>
+        <v>166</v>
       </c>
       <c r="J30" t="s">
         <v>24</v>
@@ -3234,13 +3244,13 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>142</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="C31" t="s">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -3248,20 +3258,17 @@
       <c r="E31">
         <v>0</v>
       </c>
-      <c r="F31" t="s">
-        <v>31</v>
-      </c>
       <c r="G31" t="s">
         <v>21</v>
       </c>
       <c r="H31" t="s">
-        <v>145</v>
+        <v>54</v>
       </c>
       <c r="I31" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="J31" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K31" t="b">
         <v>0</v>
@@ -3282,21 +3289,21 @@
         <v>7</v>
       </c>
       <c r="Q31" s="1">
-        <v>45764.504629629628</v>
+        <v>45764.504247685189</v>
       </c>
       <c r="R31" s="1">
-        <v>45764.504629629628</v>
+        <v>45764.504247685189</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>146</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>147</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>148</v>
+        <v>61</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -3304,20 +3311,17 @@
       <c r="E32">
         <v>0</v>
       </c>
-      <c r="F32" t="s">
-        <v>119</v>
-      </c>
       <c r="G32" t="s">
         <v>21</v>
       </c>
       <c r="H32" t="s">
-        <v>149</v>
+        <v>62</v>
       </c>
       <c r="I32" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="J32" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K32" t="b">
         <v>0</v>
@@ -3338,21 +3342,21 @@
         <v>7</v>
       </c>
       <c r="Q32" s="1">
-        <v>45764.504629629628</v>
+        <v>45764.504247685189</v>
       </c>
       <c r="R32" s="1">
-        <v>45764.504629629628</v>
+        <v>45764.504247685189</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>150</v>
-      </c>
-      <c r="B33" t="s">
-        <v>151</v>
+        <v>55</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="C33" t="s">
-        <v>152</v>
+        <v>57</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -3364,13 +3368,13 @@
         <v>21</v>
       </c>
       <c r="H33" t="s">
-        <v>153</v>
+        <v>58</v>
       </c>
       <c r="I33" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="J33" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K33" t="b">
         <v>0</v>
@@ -3391,21 +3395,21 @@
         <v>7</v>
       </c>
       <c r="Q33" s="1">
-        <v>45764.504629629628</v>
+        <v>45764.504247685189</v>
       </c>
       <c r="R33" s="1">
-        <v>45764.504629629628</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+        <v>45764.504247685189</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
       <c r="B34" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="C34" t="s">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -3417,7 +3421,7 @@
         <v>21</v>
       </c>
       <c r="H34" t="s">
-        <v>157</v>
+        <v>205</v>
       </c>
       <c r="I34" t="s">
         <v>23</v>
@@ -3450,27 +3454,30 @@
         <v>45764.515162037038</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>158</v>
+        <v>232</v>
       </c>
       <c r="B35" t="s">
-        <v>159</v>
+        <v>233</v>
       </c>
       <c r="C35" t="s">
-        <v>160</v>
+        <v>234</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>513</v>
+      </c>
+      <c r="F35" t="s">
+        <v>119</v>
       </c>
       <c r="G35" t="s">
-        <v>21</v>
+        <v>225</v>
       </c>
       <c r="H35" t="s">
-        <v>161</v>
+        <v>235</v>
       </c>
       <c r="I35" t="s">
         <v>23</v>
@@ -3558,13 +3565,13 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="B37" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="C37" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -3576,10 +3583,10 @@
         <v>21</v>
       </c>
       <c r="H37" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="I37" t="s">
-        <v>166</v>
+        <v>115</v>
       </c>
       <c r="J37" t="s">
         <v>24</v>
@@ -3611,13 +3618,13 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="B38" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="C38" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -3629,10 +3636,10 @@
         <v>21</v>
       </c>
       <c r="H38" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="I38" t="s">
-        <v>166</v>
+        <v>115</v>
       </c>
       <c r="J38" t="s">
         <v>24</v>
@@ -3664,13 +3671,13 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>175</v>
+        <v>87</v>
       </c>
       <c r="B39" t="s">
-        <v>176</v>
+        <v>88</v>
       </c>
       <c r="C39" t="s">
-        <v>177</v>
+        <v>89</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -3682,13 +3689,13 @@
         <v>21</v>
       </c>
       <c r="H39" t="s">
-        <v>178</v>
+        <v>90</v>
       </c>
       <c r="I39" t="s">
-        <v>166</v>
+        <v>29</v>
       </c>
       <c r="J39" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K39" t="b">
         <v>0</v>
@@ -3709,21 +3716,21 @@
         <v>7</v>
       </c>
       <c r="Q39" s="1">
-        <v>45764.504629629628</v>
+        <v>45764.504247685189</v>
       </c>
       <c r="R39" s="1">
-        <v>45764.504629629628</v>
+        <v>45764.504247685189</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>179</v>
+        <v>91</v>
       </c>
       <c r="B40" t="s">
-        <v>180</v>
+        <v>92</v>
       </c>
       <c r="C40" t="s">
-        <v>181</v>
+        <v>93</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -3735,13 +3742,13 @@
         <v>21</v>
       </c>
       <c r="H40" t="s">
-        <v>182</v>
+        <v>94</v>
       </c>
       <c r="I40" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="J40" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K40" t="b">
         <v>0</v>
@@ -3762,21 +3769,21 @@
         <v>7</v>
       </c>
       <c r="Q40" s="1">
-        <v>45764.504629629628</v>
+        <v>45764.504247685189</v>
       </c>
       <c r="R40" s="1">
-        <v>45764.504629629628</v>
+        <v>45764.504247685189</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="B41" t="s">
-        <v>183</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>184</v>
+        <v>85</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -3788,13 +3795,13 @@
         <v>21</v>
       </c>
       <c r="H41" t="s">
-        <v>185</v>
+        <v>86</v>
       </c>
       <c r="I41" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="J41" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K41" t="b">
         <v>0</v>
@@ -3815,21 +3822,21 @@
         <v>7</v>
       </c>
       <c r="Q41" s="1">
-        <v>45764.504629629628</v>
+        <v>45764.504247685189</v>
       </c>
       <c r="R41" s="1">
-        <v>45764.504629629628</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+        <v>45764.504247685189</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>186</v>
+        <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>187</v>
+        <v>36</v>
       </c>
       <c r="C42" t="s">
-        <v>188</v>
+        <v>37</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -3837,14 +3844,11 @@
       <c r="E42">
         <v>0</v>
       </c>
-      <c r="F42" t="s">
-        <v>119</v>
-      </c>
       <c r="G42" t="s">
         <v>21</v>
       </c>
       <c r="H42" t="s">
-        <v>189</v>
+        <v>38</v>
       </c>
       <c r="I42" t="s">
         <v>23</v>
@@ -3871,7 +3875,7 @@
         <v>23</v>
       </c>
       <c r="Q42" s="1">
-        <v>45764.504629629628</v>
+        <v>45764.504247685189</v>
       </c>
       <c r="R42" s="1">
         <v>45764.515162037038</v>
@@ -3879,13 +3883,13 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>190</v>
+        <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>191</v>
+        <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>192</v>
+        <v>49</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -3897,13 +3901,13 @@
         <v>21</v>
       </c>
       <c r="H43" t="s">
-        <v>193</v>
+        <v>50</v>
       </c>
       <c r="I43" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="J43" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K43" t="b">
         <v>0</v>
@@ -3924,21 +3928,21 @@
         <v>7</v>
       </c>
       <c r="Q43" s="1">
-        <v>45764.504629629628</v>
+        <v>45764.504247685189</v>
       </c>
       <c r="R43" s="1">
-        <v>45764.504629629628</v>
+        <v>45764.504247685189</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>194</v>
+        <v>103</v>
       </c>
       <c r="B44" t="s">
-        <v>195</v>
+        <v>104</v>
       </c>
       <c r="C44" t="s">
-        <v>196</v>
+        <v>105</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -3950,13 +3954,13 @@
         <v>21</v>
       </c>
       <c r="H44" t="s">
-        <v>197</v>
+        <v>106</v>
       </c>
       <c r="I44" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="J44" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K44" t="b">
         <v>0</v>
@@ -3977,21 +3981,21 @@
         <v>7</v>
       </c>
       <c r="Q44" s="1">
-        <v>45764.504629629628</v>
+        <v>45764.504247685189</v>
       </c>
       <c r="R44" s="1">
-        <v>45764.504629629628</v>
+        <v>45764.504247685189</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>198</v>
+        <v>107</v>
       </c>
       <c r="B45" t="s">
-        <v>199</v>
+        <v>108</v>
       </c>
       <c r="C45" t="s">
-        <v>200</v>
+        <v>109</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -4003,13 +4007,13 @@
         <v>21</v>
       </c>
       <c r="H45" t="s">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="I45" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="J45" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K45" t="b">
         <v>0</v>
@@ -4030,21 +4034,21 @@
         <v>7</v>
       </c>
       <c r="Q45" s="1">
-        <v>45764.504629629628</v>
+        <v>45764.504247685189</v>
       </c>
       <c r="R45" s="1">
-        <v>45764.504629629628</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
+        <v>45764.504247685189</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="B46" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="C46" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -4052,11 +4056,14 @@
       <c r="E46">
         <v>0</v>
       </c>
+      <c r="F46" t="s">
+        <v>119</v>
+      </c>
       <c r="G46" t="s">
         <v>21</v>
       </c>
       <c r="H46" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="I46" t="s">
         <v>23</v>
@@ -4089,15 +4096,15 @@
         <v>45764.515162037038</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>206</v>
+        <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>207</v>
+        <v>44</v>
       </c>
       <c r="C47" t="s">
-        <v>208</v>
+        <v>45</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -4109,7 +4116,7 @@
         <v>21</v>
       </c>
       <c r="H47" t="s">
-        <v>209</v>
+        <v>46</v>
       </c>
       <c r="I47" t="s">
         <v>23</v>
@@ -4136,7 +4143,7 @@
         <v>23</v>
       </c>
       <c r="Q47" s="1">
-        <v>45764.504629629628</v>
+        <v>45764.504247685189</v>
       </c>
       <c r="R47" s="1">
         <v>45764.515162037038</v>
@@ -4144,13 +4151,13 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="B48" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="C48" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -4162,13 +4169,13 @@
         <v>21</v>
       </c>
       <c r="H48" t="s">
-        <v>213</v>
+        <v>178</v>
       </c>
       <c r="I48" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="J48" t="s">
-        <v>215</v>
+        <v>24</v>
       </c>
       <c r="K48" t="b">
         <v>0</v>
@@ -4189,21 +4196,21 @@
         <v>7</v>
       </c>
       <c r="Q48" s="1">
-        <v>45764.50509259259</v>
+        <v>45764.504629629628</v>
       </c>
       <c r="R48" s="1">
-        <v>45764.50509259259</v>
+        <v>45764.504629629628</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>216</v>
+        <v>25</v>
       </c>
       <c r="B49" t="s">
-        <v>217</v>
+        <v>26</v>
       </c>
       <c r="C49" t="s">
-        <v>218</v>
+        <v>27</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -4215,13 +4222,13 @@
         <v>21</v>
       </c>
       <c r="H49" t="s">
-        <v>219</v>
+        <v>28</v>
       </c>
       <c r="I49" t="s">
-        <v>220</v>
+        <v>29</v>
       </c>
       <c r="J49" t="s">
-        <v>215</v>
+        <v>30</v>
       </c>
       <c r="K49" t="b">
         <v>0</v>
@@ -4242,36 +4249,36 @@
         <v>7</v>
       </c>
       <c r="Q49" s="1">
-        <v>45764.50509259259</v>
+        <v>45764.504247685189</v>
       </c>
       <c r="R49" s="1">
-        <v>45764.50509259259</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+        <v>45764.504629629628</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>221</v>
+        <v>121</v>
       </c>
       <c r="B50" t="s">
-        <v>222</v>
+        <v>122</v>
       </c>
       <c r="C50" t="s">
-        <v>223</v>
+        <v>123</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50">
-        <v>513</v>
+        <v>0</v>
       </c>
       <c r="F50" t="s">
-        <v>224</v>
+        <v>119</v>
       </c>
       <c r="G50" t="s">
-        <v>225</v>
+        <v>21</v>
       </c>
       <c r="H50" t="s">
-        <v>226</v>
+        <v>124</v>
       </c>
       <c r="I50" t="s">
         <v>23</v>
@@ -4298,42 +4305,39 @@
         <v>23</v>
       </c>
       <c r="Q50" s="1">
-        <v>45764.504247685189</v>
+        <v>45764.504629629628</v>
       </c>
       <c r="R50" s="1">
-        <v>45764.515543981484</v>
+        <v>45764.515162037038</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="B51" t="s">
-        <v>228</v>
+        <v>172</v>
       </c>
       <c r="C51" t="s">
-        <v>229</v>
+        <v>173</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>514</v>
-      </c>
-      <c r="F51" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>225</v>
+        <v>21</v>
       </c>
       <c r="H51" t="s">
-        <v>230</v>
+        <v>174</v>
       </c>
       <c r="I51" t="s">
-        <v>231</v>
+        <v>166</v>
       </c>
       <c r="J51" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="K51" t="b">
         <v>0</v>
@@ -4348,42 +4352,39 @@
         <v>0</v>
       </c>
       <c r="O51">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="P51">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="Q51" s="1">
-        <v>45764.504247685189</v>
+        <v>45764.504629629628</v>
       </c>
       <c r="R51" s="1">
-        <v>45764.504247685189</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+        <v>45764.504629629628</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>232</v>
+        <v>154</v>
       </c>
       <c r="B52" t="s">
-        <v>233</v>
+        <v>155</v>
       </c>
       <c r="C52" t="s">
-        <v>234</v>
+        <v>156</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52">
-        <v>513</v>
-      </c>
-      <c r="F52" t="s">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>225</v>
+        <v>21</v>
       </c>
       <c r="H52" t="s">
-        <v>235</v>
+        <v>157</v>
       </c>
       <c r="I52" t="s">
         <v>23</v>
@@ -4417,7 +4418,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R1" xr:uid="{887D09AF-12EA-4D38-936F-715645BFFC8B}"/>
+  <autoFilter ref="A1:R52" xr:uid="{887D09AF-12EA-4D38-936F-715645BFFC8B}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:R51">
+      <sortCondition ref="A1:A52"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>